--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,7 +91,13 @@
     <t>Plxna4</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H2">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J2">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32468411735159</v>
+        <v>2.59603</v>
       </c>
       <c r="N2">
-        <v>1.32468411735159</v>
+        <v>7.78809</v>
       </c>
       <c r="O2">
-        <v>0.637463287377932</v>
+        <v>0.7224164495330042</v>
       </c>
       <c r="P2">
-        <v>0.637463287377932</v>
+        <v>0.7224164495330041</v>
       </c>
       <c r="Q2">
-        <v>0.6881332587003839</v>
+        <v>2.084358544403333</v>
       </c>
       <c r="R2">
-        <v>0.6881332587003839</v>
+        <v>18.75922689963</v>
       </c>
       <c r="S2">
-        <v>0.03939002107867443</v>
+        <v>0.04483841245416331</v>
       </c>
       <c r="T2">
-        <v>0.03939002107867443</v>
+        <v>0.0448384124541633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H3">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J3">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217001457306231</v>
+        <v>0.2626673333333333</v>
       </c>
       <c r="N3">
-        <v>0.217001457306231</v>
+        <v>0.788002</v>
       </c>
       <c r="O3">
-        <v>0.1044252441229482</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="P3">
-        <v>0.1044252441229482</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="Q3">
-        <v>0.1127256815439237</v>
+        <v>0.2108962148237777</v>
       </c>
       <c r="R3">
-        <v>0.1127256815439237</v>
+        <v>1.898065933414</v>
       </c>
       <c r="S3">
-        <v>0.00645262660390668</v>
+        <v>0.004536768153771411</v>
       </c>
       <c r="T3">
-        <v>0.00645262660390668</v>
+        <v>0.004536768153771411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H4">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J4">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.150414738433222</v>
+        <v>0.05896966666666666</v>
       </c>
       <c r="N4">
-        <v>0.150414738433222</v>
+        <v>0.176909</v>
       </c>
       <c r="O4">
-        <v>0.07238244376586311</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="P4">
-        <v>0.07238244376586311</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="Q4">
-        <v>0.0781358987843493</v>
+        <v>0.04734688296255555</v>
       </c>
       <c r="R4">
-        <v>0.0781358987843493</v>
+        <v>0.4261219466629999</v>
       </c>
       <c r="S4">
-        <v>0.004472643432362811</v>
+        <v>0.001018519137407705</v>
       </c>
       <c r="T4">
-        <v>0.004472643432362811</v>
+        <v>0.001018519137407705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.519469698237307</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H5">
-        <v>0.519469698237307</v>
+        <v>2.408707</v>
       </c>
       <c r="I5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J5">
-        <v>0.06179182685280089</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.385955229213821</v>
+        <v>0.277219</v>
       </c>
       <c r="N5">
-        <v>0.385955229213821</v>
+        <v>0.8316570000000001</v>
       </c>
       <c r="O5">
-        <v>0.1857290247332566</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="P5">
-        <v>0.1857290247332566</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="Q5">
-        <v>0.2004920464528143</v>
+        <v>0.2225797819443334</v>
       </c>
       <c r="R5">
-        <v>0.2004920464528143</v>
+        <v>2.003218037499</v>
       </c>
       <c r="S5">
-        <v>0.01147653573785697</v>
+        <v>0.004788103320119835</v>
       </c>
       <c r="T5">
-        <v>0.01147653573785697</v>
+        <v>0.004788103320119835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.61307029469273</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H6">
-        <v>1.61307029469273</v>
+        <v>2.408707</v>
       </c>
       <c r="I6">
-        <v>0.191877525656012</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J6">
-        <v>0.191877525656012</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.32468411735159</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N6">
-        <v>1.32468411735159</v>
+        <v>0.035261</v>
       </c>
       <c r="O6">
-        <v>0.637463287377932</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="P6">
-        <v>0.637463287377932</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="Q6">
-        <v>2.136808599551108</v>
+        <v>0.009437046391888889</v>
       </c>
       <c r="R6">
-        <v>2.136808599551108</v>
+        <v>0.084933417527</v>
       </c>
       <c r="S6">
-        <v>0.1223148782786249</v>
+        <v>0.0002030083449916799</v>
       </c>
       <c r="T6">
-        <v>0.1223148782786249</v>
+        <v>0.0002030083449916799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.61307029469273</v>
+        <v>0.8029023333333333</v>
       </c>
       <c r="H7">
-        <v>1.61307029469273</v>
+        <v>2.408707</v>
       </c>
       <c r="I7">
-        <v>0.191877525656012</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="J7">
-        <v>0.191877525656012</v>
+        <v>0.06206726394886004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217001457306231</v>
+        <v>0.386897</v>
       </c>
       <c r="N7">
-        <v>0.217001457306231</v>
+        <v>1.160691</v>
       </c>
       <c r="O7">
-        <v>0.1044252441229482</v>
+        <v>0.1076646868776442</v>
       </c>
       <c r="P7">
-        <v>0.1044252441229482</v>
+        <v>0.1076646868776442</v>
       </c>
       <c r="Q7">
-        <v>0.3500386046857139</v>
+        <v>0.3106405040596666</v>
       </c>
       <c r="R7">
-        <v>0.3500386046857139</v>
+        <v>2.795764536536999</v>
       </c>
       <c r="S7">
-        <v>0.02003685745833631</v>
+        <v>0.006682452538406111</v>
       </c>
       <c r="T7">
-        <v>0.02003685745833631</v>
+        <v>0.00668245253840611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H8">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J8">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.150414738433222</v>
+        <v>2.59603</v>
       </c>
       <c r="N8">
-        <v>0.150414738433222</v>
+        <v>7.78809</v>
       </c>
       <c r="O8">
-        <v>0.07238244376586311</v>
+        <v>0.7224164495330042</v>
       </c>
       <c r="P8">
-        <v>0.07238244376586311</v>
+        <v>0.7224164495330041</v>
       </c>
       <c r="Q8">
-        <v>0.2426295464506073</v>
+        <v>5.607241347213334</v>
       </c>
       <c r="R8">
-        <v>0.2426295464506073</v>
+        <v>50.46517212492</v>
       </c>
       <c r="S8">
-        <v>0.01388856421072924</v>
+        <v>0.1206221458066664</v>
       </c>
       <c r="T8">
-        <v>0.01388856421072924</v>
+        <v>0.1206221458066664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +968,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.61307029469273</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H9">
-        <v>1.61307029469273</v>
+        <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J9">
-        <v>0.191877525656012</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.385955229213821</v>
+        <v>0.2626673333333333</v>
       </c>
       <c r="N9">
-        <v>0.385955229213821</v>
+        <v>0.788002</v>
       </c>
       <c r="O9">
-        <v>0.1857290247332566</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="P9">
-        <v>0.1857290247332566</v>
+        <v>0.07309437963157928</v>
       </c>
       <c r="Q9">
-        <v>0.6225729153261385</v>
+        <v>0.5673428781751111</v>
       </c>
       <c r="R9">
-        <v>0.6225729153261385</v>
+        <v>5.106085903576</v>
       </c>
       <c r="S9">
-        <v>0.03563722570832153</v>
+        <v>0.01220459601005442</v>
       </c>
       <c r="T9">
-        <v>0.03563722570832153</v>
+        <v>0.01220459601005442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1030,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.27423036320098</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H10">
-        <v>6.27423036320098</v>
+        <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J10">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.32468411735159</v>
+        <v>0.05896966666666666</v>
       </c>
       <c r="N10">
-        <v>1.32468411735159</v>
+        <v>0.176909</v>
       </c>
       <c r="O10">
-        <v>0.637463287377932</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="P10">
-        <v>0.637463287377932</v>
+        <v>0.01640992485582912</v>
       </c>
       <c r="Q10">
-        <v>8.311373310737435</v>
+        <v>0.1273703128102222</v>
       </c>
       <c r="R10">
-        <v>8.311373310737435</v>
+        <v>1.146332815292</v>
       </c>
       <c r="S10">
-        <v>0.4757583880206327</v>
+        <v>0.00273997131421331</v>
       </c>
       <c r="T10">
-        <v>0.4757583880206327</v>
+        <v>0.00273997131421331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,60 +1092,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.27423036320098</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H11">
-        <v>6.27423036320098</v>
+        <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J11">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.217001457306231</v>
+        <v>0.277219</v>
       </c>
       <c r="N11">
-        <v>0.217001457306231</v>
+        <v>0.8316570000000001</v>
       </c>
       <c r="O11">
-        <v>0.1044252441229482</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="P11">
-        <v>0.1044252441229482</v>
+        <v>0.07714377943363131</v>
       </c>
       <c r="Q11">
-        <v>1.361517132289616</v>
+        <v>0.5987734498573335</v>
       </c>
       <c r="R11">
-        <v>1.361517132289616</v>
+        <v>5.388961048716</v>
       </c>
       <c r="S11">
-        <v>0.07793576006070524</v>
+        <v>0.01288072581533274</v>
       </c>
       <c r="T11">
-        <v>0.07793576006070524</v>
+        <v>0.01288072581533274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1148,60 +1154,60 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.27423036320098</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H12">
-        <v>6.27423036320098</v>
+        <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J12">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.150414738433222</v>
+        <v>0.01175366666666667</v>
       </c>
       <c r="N12">
-        <v>0.150414738433222</v>
+        <v>0.035261</v>
       </c>
       <c r="O12">
-        <v>0.07238244376586311</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="P12">
-        <v>0.07238244376586311</v>
+        <v>0.003270779668311904</v>
       </c>
       <c r="Q12">
-        <v>0.9437367189506549</v>
+        <v>0.02538708940755556</v>
       </c>
       <c r="R12">
-        <v>0.9437367189506549</v>
+        <v>0.228483804668</v>
       </c>
       <c r="S12">
-        <v>0.05402123612277106</v>
+        <v>0.0005461233092181604</v>
       </c>
       <c r="T12">
-        <v>0.05402123612277106</v>
+        <v>0.0005461233092181604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1213,52 +1219,424 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.27423036320098</v>
+        <v>2.159929333333333</v>
       </c>
       <c r="H13">
-        <v>6.27423036320098</v>
+        <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="J13">
-        <v>0.7463306474911872</v>
+        <v>0.1669703754456877</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.385955229213821</v>
+        <v>0.386897</v>
       </c>
       <c r="N13">
-        <v>0.385955229213821</v>
+        <v>1.160691</v>
       </c>
       <c r="O13">
-        <v>0.1857290247332566</v>
+        <v>0.1076646868776442</v>
       </c>
       <c r="P13">
-        <v>0.1857290247332566</v>
+        <v>0.1076646868776442</v>
       </c>
       <c r="Q13">
-        <v>2.42157201796955</v>
+        <v>0.8356701792786667</v>
       </c>
       <c r="R13">
-        <v>2.42157201796955</v>
+        <v>7.521031613508</v>
       </c>
       <c r="S13">
-        <v>0.1386152632870781</v>
+        <v>0.01797681319020265</v>
       </c>
       <c r="T13">
-        <v>0.1386152632870781</v>
+        <v>0.01797681319020265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.973171666666666</v>
+      </c>
+      <c r="H14">
+        <v>29.919515</v>
+      </c>
+      <c r="I14">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="J14">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.59603</v>
+      </c>
+      <c r="N14">
+        <v>7.78809</v>
+      </c>
+      <c r="O14">
+        <v>0.7224164495330042</v>
+      </c>
+      <c r="P14">
+        <v>0.7224164495330041</v>
+      </c>
+      <c r="Q14">
+        <v>25.89065284181667</v>
+      </c>
+      <c r="R14">
+        <v>233.01587557635</v>
+      </c>
+      <c r="S14">
+        <v>0.5569558912721745</v>
+      </c>
+      <c r="T14">
+        <v>0.5569558912721745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.973171666666666</v>
+      </c>
+      <c r="H15">
+        <v>29.919515</v>
+      </c>
+      <c r="I15">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="J15">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2626673333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.788002</v>
+      </c>
+      <c r="O15">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="P15">
+        <v>0.07309437963157928</v>
+      </c>
+      <c r="Q15">
+        <v>2.619626406558889</v>
+      </c>
+      <c r="R15">
+        <v>23.57663765903</v>
+      </c>
+      <c r="S15">
+        <v>0.05635301546775345</v>
+      </c>
+      <c r="T15">
+        <v>0.05635301546775345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.973171666666666</v>
+      </c>
+      <c r="H16">
+        <v>29.919515</v>
+      </c>
+      <c r="I16">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="J16">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05896966666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.176909</v>
+      </c>
+      <c r="O16">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="P16">
+        <v>0.01640992485582912</v>
+      </c>
+      <c r="Q16">
+        <v>0.5881146087927777</v>
+      </c>
+      <c r="R16">
+        <v>5.293031479134999</v>
+      </c>
+      <c r="S16">
+        <v>0.0126514344042081</v>
+      </c>
+      <c r="T16">
+        <v>0.0126514344042081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.973171666666666</v>
+      </c>
+      <c r="H17">
+        <v>29.919515</v>
+      </c>
+      <c r="I17">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="J17">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.277219</v>
+      </c>
+      <c r="N17">
+        <v>0.8316570000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="P17">
+        <v>0.07714377943363131</v>
+      </c>
+      <c r="Q17">
+        <v>2.764752676261667</v>
+      </c>
+      <c r="R17">
+        <v>24.882774086355</v>
+      </c>
+      <c r="S17">
+        <v>0.05947495029817874</v>
+      </c>
+      <c r="T17">
+        <v>0.05947495029817874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.973171666666666</v>
+      </c>
+      <c r="H18">
+        <v>29.919515</v>
+      </c>
+      <c r="I18">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="J18">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01175366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.035261</v>
+      </c>
+      <c r="O18">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="P18">
+        <v>0.003270779668311904</v>
+      </c>
+      <c r="Q18">
+        <v>0.1172213353794444</v>
+      </c>
+      <c r="R18">
+        <v>1.054992018415</v>
+      </c>
+      <c r="S18">
+        <v>0.002521648014102064</v>
+      </c>
+      <c r="T18">
+        <v>0.002521648014102064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.973171666666666</v>
+      </c>
+      <c r="H19">
+        <v>29.919515</v>
+      </c>
+      <c r="I19">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="J19">
+        <v>0.7709623606054523</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.386897</v>
+      </c>
+      <c r="N19">
+        <v>1.160691</v>
+      </c>
+      <c r="O19">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="P19">
+        <v>0.1076646868776442</v>
+      </c>
+      <c r="Q19">
+        <v>3.858590198318333</v>
+      </c>
+      <c r="R19">
+        <v>34.72731178486499</v>
+      </c>
+      <c r="S19">
+        <v>0.08300542114903543</v>
+      </c>
+      <c r="T19">
+        <v>0.08300542114903543</v>
       </c>
     </row>
   </sheetData>
